--- a/com.espn/src/test/resources/TestData.xlsx
+++ b/com.espn/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hafiz\IDEA Project\Team1BootCamp\base\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khadizapushpo/IdeaProjects/Team1BootCamp/com.espn/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4722EE68-90EB-42C0-AF92-D8B589C2F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFADBC1-0D67-6E44-9412-01425F1ACBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="9" xr2:uid="{BF43A26A-CFA6-4A10-8339-8D5564FBA255}"/>
   </bookViews>
   <sheets>
     <sheet name="Expedia" sheetId="1" r:id="rId1"/>
@@ -47,22 +47,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Standings</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Roster</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>2021PlayOffs</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Daily Lines</t>
+  </si>
+  <si>
+    <t>Depth Charts</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,9 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D271-5906-41EE-853E-85EA245B6942}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -413,14 +471,103 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6DB0C-125D-41E6-B672-3FA74959CDA8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -433,7 +580,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -447,7 +594,7 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -461,7 +608,7 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -475,7 +622,7 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -489,7 +636,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -503,7 +650,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +664,7 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -531,9 +678,9 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +698,7 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -563,7 +710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -575,7 +722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -587,7 +734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
